--- a/Pygame_shapes.xlsx
+++ b/Pygame_shapes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/federico.tognetti/Python_Portfolio_Projects/14_Space_Invaders/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45186B8E-15AB-F341-BA1E-9E2D14DBEA12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F0D2C9-422D-5141-9E4E-0CDE385A09B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="500" windowWidth="38360" windowHeight="21100" xr2:uid="{9720652C-E0D3-6543-921A-B0F9550DEC2C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{9720652C-E0D3-6543-921A-B0F9550DEC2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Alien_1" sheetId="1" r:id="rId1"/>
@@ -35,12 +35,40 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>ALIEN TYPE 1</t>
+  </si>
+  <si>
+    <t>ALIEN TYPE 2</t>
+  </si>
+  <si>
+    <t>SPACE SHIP</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9" tint="0.39997558519241921"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="9" tint="0.39997558519241921"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -54,7 +82,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -62,17 +90,116 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -402,17 +529,755 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C6AEF1-0C59-D948-89EE-2A44985CD70E}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:Y28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AF22" sqref="AF22"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="132" width="2.83203125" customWidth="1"/>
+    <col min="1" max="132" width="2.83203125" style="1" customWidth="1"/>
+    <col min="133" max="16384" width="10.83203125" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:25" ht="27" x14ac:dyDescent="0.35">
+      <c r="B1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="O1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+    </row>
+    <row r="3" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="4">
+        <v>1</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3">
+        <v>1</v>
+      </c>
+      <c r="R3" s="3">
+        <v>1</v>
+      </c>
+      <c r="S3" s="3">
+        <v>1</v>
+      </c>
+      <c r="T3" s="3">
+        <v>1</v>
+      </c>
+      <c r="U3" s="3">
+        <v>1</v>
+      </c>
+      <c r="V3" s="3">
+        <v>1</v>
+      </c>
+      <c r="W3" s="3">
+        <v>1</v>
+      </c>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="4"/>
+    </row>
+    <row r="4" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B4" s="5"/>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6">
+        <v>1</v>
+      </c>
+      <c r="K4" s="6">
+        <v>1</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>1</v>
+      </c>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6">
+        <v>1</v>
+      </c>
+      <c r="T4" s="6">
+        <v>1</v>
+      </c>
+      <c r="U4" s="6">
+        <v>1</v>
+      </c>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6">
+        <v>1</v>
+      </c>
+      <c r="X4" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="7"/>
+    </row>
+    <row r="5" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6">
+        <v>1</v>
+      </c>
+      <c r="I5" s="6">
+        <v>1</v>
+      </c>
+      <c r="J5" s="6">
+        <v>1</v>
+      </c>
+      <c r="K5" s="6"/>
+      <c r="L5" s="7"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>1</v>
+      </c>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6">
+        <v>1</v>
+      </c>
+      <c r="T5" s="6">
+        <v>1</v>
+      </c>
+      <c r="U5" s="6">
+        <v>1</v>
+      </c>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6">
+        <v>1</v>
+      </c>
+      <c r="X5" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="7"/>
+    </row>
+    <row r="6" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6">
+        <v>1</v>
+      </c>
+      <c r="K6" s="6"/>
+      <c r="L6" s="7"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>1</v>
+      </c>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6">
+        <v>1</v>
+      </c>
+      <c r="T6" s="6">
+        <v>1</v>
+      </c>
+      <c r="U6" s="6">
+        <v>1</v>
+      </c>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6">
+        <v>1</v>
+      </c>
+      <c r="X6" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="7"/>
+    </row>
+    <row r="7" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B7" s="5"/>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6">
+        <v>1</v>
+      </c>
+      <c r="I7" s="6">
+        <v>1</v>
+      </c>
+      <c r="J7" s="6">
+        <v>1</v>
+      </c>
+      <c r="K7" s="6">
+        <v>1</v>
+      </c>
+      <c r="L7" s="7"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6">
+        <v>1</v>
+      </c>
+      <c r="R7" s="6">
+        <v>1</v>
+      </c>
+      <c r="S7" s="6">
+        <v>1</v>
+      </c>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6">
+        <v>1</v>
+      </c>
+      <c r="V7" s="6">
+        <v>1</v>
+      </c>
+      <c r="W7" s="6">
+        <v>1</v>
+      </c>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="7"/>
+    </row>
+    <row r="8" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B8" s="5"/>
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6">
+        <v>1</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6">
+        <v>1</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6">
+        <v>1</v>
+      </c>
+      <c r="L8" s="7"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6">
+        <v>1</v>
+      </c>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6">
+        <v>1</v>
+      </c>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6">
+        <v>1</v>
+      </c>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="7"/>
+    </row>
+    <row r="9" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6">
+        <v>1</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6">
+        <v>1</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6">
+        <v>1</v>
+      </c>
+      <c r="K9" s="6"/>
+      <c r="L9" s="7"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6">
+        <v>1</v>
+      </c>
+      <c r="R9" s="6">
+        <v>1</v>
+      </c>
+      <c r="S9" s="6">
+        <v>1</v>
+      </c>
+      <c r="T9" s="6">
+        <v>1</v>
+      </c>
+      <c r="U9" s="6">
+        <v>1</v>
+      </c>
+      <c r="V9" s="6">
+        <v>1</v>
+      </c>
+      <c r="W9" s="6">
+        <v>1</v>
+      </c>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="7"/>
+    </row>
+    <row r="10" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6">
+        <v>1</v>
+      </c>
+      <c r="H10" s="6">
+        <v>1</v>
+      </c>
+      <c r="I10" s="6">
+        <v>1</v>
+      </c>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="7"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>1</v>
+      </c>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6">
+        <v>1</v>
+      </c>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6">
+        <v>1</v>
+      </c>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6">
+        <v>1</v>
+      </c>
+      <c r="X10" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="7"/>
+    </row>
+    <row r="11" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6">
+        <v>1</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1</v>
+      </c>
+      <c r="H11" s="6">
+        <v>1</v>
+      </c>
+      <c r="I11" s="6">
+        <v>1</v>
+      </c>
+      <c r="J11" s="6">
+        <v>1</v>
+      </c>
+      <c r="K11" s="6">
+        <v>1</v>
+      </c>
+      <c r="L11" s="7">
+        <v>1</v>
+      </c>
+      <c r="O11" s="5">
+        <v>1</v>
+      </c>
+      <c r="P11" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6">
+        <v>1</v>
+      </c>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6">
+        <v>1</v>
+      </c>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B12" s="8">
+        <v>1</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="10">
+        <v>1</v>
+      </c>
+      <c r="O12" s="8">
+        <v>1</v>
+      </c>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9">
+        <v>1</v>
+      </c>
+      <c r="S12" s="9">
+        <v>1</v>
+      </c>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9">
+        <v>1</v>
+      </c>
+      <c r="V12" s="9">
+        <v>1</v>
+      </c>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="27" x14ac:dyDescent="0.35">
+      <c r="B17" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6">
+        <v>1</v>
+      </c>
+      <c r="G20" s="6">
+        <v>1</v>
+      </c>
+      <c r="H20" s="6">
+        <v>1</v>
+      </c>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="7"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B21" s="5"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6">
+        <v>1</v>
+      </c>
+      <c r="F21" s="6">
+        <v>1</v>
+      </c>
+      <c r="G21" s="6">
+        <v>1</v>
+      </c>
+      <c r="H21" s="6">
+        <v>1</v>
+      </c>
+      <c r="I21" s="6">
+        <v>1</v>
+      </c>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="7"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6">
+        <v>1</v>
+      </c>
+      <c r="E22" s="6">
+        <v>1</v>
+      </c>
+      <c r="F22" s="6">
+        <v>1</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6">
+        <v>1</v>
+      </c>
+      <c r="I22" s="6">
+        <v>1</v>
+      </c>
+      <c r="J22" s="6">
+        <v>1</v>
+      </c>
+      <c r="K22" s="6"/>
+      <c r="L22" s="7"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B23" s="5">
+        <v>1</v>
+      </c>
+      <c r="C23" s="6">
+        <v>1</v>
+      </c>
+      <c r="D23" s="6">
+        <v>1</v>
+      </c>
+      <c r="E23" s="6">
+        <v>1</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6">
+        <v>1</v>
+      </c>
+      <c r="J23" s="6">
+        <v>1</v>
+      </c>
+      <c r="K23" s="6">
+        <v>1</v>
+      </c>
+      <c r="L23" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B24" s="5"/>
+      <c r="C24" s="6">
+        <v>1</v>
+      </c>
+      <c r="D24" s="6">
+        <v>1</v>
+      </c>
+      <c r="E24" s="6">
+        <v>1</v>
+      </c>
+      <c r="F24" s="6">
+        <v>1</v>
+      </c>
+      <c r="G24" s="6">
+        <v>1</v>
+      </c>
+      <c r="H24" s="6">
+        <v>1</v>
+      </c>
+      <c r="I24" s="6">
+        <v>1</v>
+      </c>
+      <c r="J24" s="6">
+        <v>1</v>
+      </c>
+      <c r="K24" s="6">
+        <v>1</v>
+      </c>
+      <c r="L24" s="7"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6">
+        <v>1</v>
+      </c>
+      <c r="E25" s="6">
+        <v>1</v>
+      </c>
+      <c r="F25" s="6">
+        <v>1</v>
+      </c>
+      <c r="G25" s="6">
+        <v>1</v>
+      </c>
+      <c r="H25" s="6">
+        <v>1</v>
+      </c>
+      <c r="I25" s="6">
+        <v>1</v>
+      </c>
+      <c r="J25" s="6">
+        <v>1</v>
+      </c>
+      <c r="K25" s="6"/>
+      <c r="L25" s="7"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B26" s="8"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9">
+        <v>1</v>
+      </c>
+      <c r="F26" s="9">
+        <v>1</v>
+      </c>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9">
+        <v>1</v>
+      </c>
+      <c r="I26" s="9">
+        <v>1</v>
+      </c>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="10"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>A1=1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Pygame_shapes.xlsx
+++ b/Pygame_shapes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/federico.tognetti/Python_Portfolio_Projects/14_Space_Invaders/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F0D2C9-422D-5141-9E4E-0CDE385A09B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3AE46E0-BFE0-FC46-A45A-8CE1FA07BF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{9720652C-E0D3-6543-921A-B0F9550DEC2C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>ALIEN TYPE 1</t>
   </si>
@@ -44,7 +44,16 @@
     <t>ALIEN TYPE 2</t>
   </si>
   <si>
-    <t>SPACE SHIP</t>
+    <t>SPACE SHIP 1</t>
+  </si>
+  <si>
+    <t>SPACE SHIP 2</t>
+  </si>
+  <si>
+    <t>MISSILE</t>
+  </si>
+  <si>
+    <t>Explosion</t>
   </si>
 </sst>
 </file>
@@ -529,19 +538,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C6AEF1-0C59-D948-89EE-2A44985CD70E}">
-  <dimension ref="B1:Y28"/>
+  <dimension ref="B1:AL28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="AJ10" sqref="AJ10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="132" width="2.83203125" style="1" customWidth="1"/>
-    <col min="133" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="126" width="2.83203125" style="1" customWidth="1"/>
+    <col min="127" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" ht="27" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:38" ht="27" x14ac:dyDescent="0.35">
       <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
@@ -568,21 +577,48 @@
       <c r="W1" s="11"/>
       <c r="X1" s="11"/>
       <c r="Y1" s="11"/>
+      <c r="AB1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
+      <c r="AH1" s="11"/>
+      <c r="AI1" s="11"/>
+      <c r="AJ1" s="11"/>
+      <c r="AK1" s="11"/>
+      <c r="AL1" s="11"/>
     </row>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
       <c r="K3" s="3">
         <v>1</v>
       </c>
@@ -614,27 +650,74 @@
       </c>
       <c r="X3" s="3"/>
       <c r="Y3" s="4"/>
+      <c r="AB3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B4" s="5"/>
+    <row r="4" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
       <c r="C4" s="6">
         <v>1</v>
       </c>
       <c r="D4" s="6">
         <v>1</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
       <c r="J4" s="6">
         <v>1</v>
       </c>
       <c r="K4" s="6">
         <v>1</v>
       </c>
-      <c r="L4" s="7"/>
+      <c r="L4" s="7">
+        <v>0</v>
+      </c>
       <c r="O4" s="5"/>
       <c r="P4" s="6">
         <v>1</v>
@@ -660,10 +743,47 @@
         <v>1</v>
       </c>
       <c r="Y4" s="7"/>
+      <c r="AB4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="6">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="6">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
+    <row r="5" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
       <c r="D5" s="6">
         <v>1</v>
       </c>
@@ -685,8 +805,12 @@
       <c r="J5" s="6">
         <v>1</v>
       </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="7"/>
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0</v>
+      </c>
       <c r="O5" s="5"/>
       <c r="P5" s="6">
         <v>1</v>
@@ -712,25 +836,74 @@
         <v>1</v>
       </c>
       <c r="Y5" s="7"/>
+      <c r="AB5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="6">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="6">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="6">
+        <v>1</v>
+      </c>
+      <c r="AK5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
+    <row r="6" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
       <c r="D6" s="6">
         <v>1</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
       <c r="G6" s="6">
         <v>1</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
       <c r="J6" s="6">
         <v>1</v>
       </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="7"/>
+      <c r="K6" s="6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0</v>
+      </c>
       <c r="O6" s="5"/>
       <c r="P6" s="6">
         <v>1</v>
@@ -756,9 +929,44 @@
         <v>1</v>
       </c>
       <c r="Y6" s="7"/>
+      <c r="AB6" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="6">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="6">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B7" s="5"/>
+    <row r="7" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
       <c r="C7" s="6">
         <v>1</v>
       </c>
@@ -786,7 +994,9 @@
       <c r="K7" s="6">
         <v>1</v>
       </c>
-      <c r="L7" s="7"/>
+      <c r="L7" s="7">
+        <v>0</v>
+      </c>
       <c r="O7" s="5"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="6">
@@ -810,29 +1020,74 @@
       </c>
       <c r="X7" s="6"/>
       <c r="Y7" s="7"/>
+      <c r="AB7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="6">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="6">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B8" s="5"/>
+    <row r="8" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
       <c r="C8" s="6">
         <v>1</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
       <c r="E8" s="6">
         <v>1</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
       <c r="G8" s="6">
         <v>1</v>
       </c>
-      <c r="H8" s="6"/>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
       <c r="I8" s="6">
         <v>1</v>
       </c>
-      <c r="J8" s="6"/>
+      <c r="J8" s="6">
+        <v>0</v>
+      </c>
       <c r="K8" s="6">
         <v>1</v>
       </c>
-      <c r="L8" s="7"/>
+      <c r="L8" s="7">
+        <v>0</v>
+      </c>
       <c r="O8" s="5"/>
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
@@ -850,27 +1105,74 @@
       <c r="W8" s="6"/>
       <c r="X8" s="6"/>
       <c r="Y8" s="7"/>
+      <c r="AB8" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
+    <row r="9" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0</v>
+      </c>
       <c r="D9" s="6">
         <v>1</v>
       </c>
-      <c r="E9" s="6"/>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
       <c r="F9" s="6">
         <v>1</v>
       </c>
-      <c r="G9" s="6"/>
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
       <c r="H9" s="6">
         <v>1</v>
       </c>
-      <c r="I9" s="6"/>
+      <c r="I9" s="6">
+        <v>0</v>
+      </c>
       <c r="J9" s="6">
         <v>1</v>
       </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="7"/>
+      <c r="K9" s="6">
+        <v>0</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0</v>
+      </c>
       <c r="O9" s="5"/>
       <c r="P9" s="6"/>
       <c r="Q9" s="6">
@@ -896,11 +1198,50 @@
       </c>
       <c r="X9" s="6"/>
       <c r="Y9" s="7"/>
+      <c r="AB9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="6">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="6">
+        <v>1</v>
+      </c>
+      <c r="AJ9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL9" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+    <row r="10" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
       <c r="E10" s="6">
         <v>1</v>
       </c>
@@ -916,9 +1257,15 @@
       <c r="I10" s="6">
         <v>1</v>
       </c>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="7"/>
+      <c r="J10" s="6">
+        <v>0</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0</v>
+      </c>
+      <c r="L10" s="7">
+        <v>1</v>
+      </c>
       <c r="O10" s="5"/>
       <c r="P10" s="6">
         <v>1</v>
@@ -942,13 +1289,46 @@
         <v>1</v>
       </c>
       <c r="Y10" s="7"/>
+      <c r="AB10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="6">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="6">
+        <v>1</v>
+      </c>
+      <c r="AH10" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="6">
+        <v>1</v>
+      </c>
+      <c r="AK10" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B11" s="5">
         <v>1</v>
       </c>
       <c r="C11" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="6">
         <v>1</v>
@@ -972,7 +1352,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="7">
         <v>1</v>
@@ -1000,20 +1380,71 @@
       <c r="Y11" s="7">
         <v>1</v>
       </c>
+      <c r="AB11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="6">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="6">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL11" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B12" s="8">
         <v>1</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
+      <c r="C12" s="9">
+        <v>1</v>
+      </c>
+      <c r="D12" s="9">
+        <v>1</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0</v>
+      </c>
+      <c r="F12" s="9">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0</v>
+      </c>
+      <c r="J12" s="9">
+        <v>1</v>
+      </c>
+      <c r="K12" s="9">
+        <v>1</v>
+      </c>
       <c r="L12" s="10">
         <v>1</v>
       </c>
@@ -1040,8 +1471,41 @@
       <c r="Y12" s="10">
         <v>1</v>
       </c>
+      <c r="AB12" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="9">
+        <v>1</v>
+      </c>
+      <c r="AI12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="2:12" ht="27" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:32" ht="27" x14ac:dyDescent="0.35">
       <c r="B17" s="11" t="s">
         <v>2</v>
       </c>
@@ -1055,8 +1519,28 @@
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
+      <c r="O17" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="AB17" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC17" s="11"/>
+      <c r="AD17" s="11"/>
+      <c r="AE17" s="11"/>
+      <c r="AF17" s="11"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1070,8 +1554,56 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="4"/>
+      <c r="O19" s="2">
+        <v>1</v>
+      </c>
+      <c r="P19" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>0</v>
+      </c>
+      <c r="R19" s="3">
+        <v>0</v>
+      </c>
+      <c r="S19" s="3">
+        <v>0</v>
+      </c>
+      <c r="T19" s="3">
+        <v>1</v>
+      </c>
+      <c r="U19" s="3">
+        <v>0</v>
+      </c>
+      <c r="V19" s="3">
+        <v>0</v>
+      </c>
+      <c r="W19" s="3">
+        <v>0</v>
+      </c>
+      <c r="X19" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -1089,8 +1621,56 @@
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
       <c r="L20" s="7"/>
+      <c r="O20" s="5">
+        <v>1</v>
+      </c>
+      <c r="P20" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>0</v>
+      </c>
+      <c r="R20" s="6">
+        <v>0</v>
+      </c>
+      <c r="S20" s="6">
+        <v>0</v>
+      </c>
+      <c r="T20" s="6">
+        <v>1</v>
+      </c>
+      <c r="U20" s="6">
+        <v>0</v>
+      </c>
+      <c r="V20" s="6">
+        <v>0</v>
+      </c>
+      <c r="W20" s="6">
+        <v>0</v>
+      </c>
+      <c r="X20" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="6">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -1112,8 +1692,56 @@
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
       <c r="L21" s="7"/>
+      <c r="O21" s="5">
+        <v>1</v>
+      </c>
+      <c r="P21" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>1</v>
+      </c>
+      <c r="R21" s="6">
+        <v>0</v>
+      </c>
+      <c r="S21" s="6">
+        <v>1</v>
+      </c>
+      <c r="T21" s="6">
+        <v>1</v>
+      </c>
+      <c r="U21" s="6">
+        <v>1</v>
+      </c>
+      <c r="V21" s="6">
+        <v>0</v>
+      </c>
+      <c r="W21" s="6">
+        <v>1</v>
+      </c>
+      <c r="X21" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="6">
+        <v>1</v>
+      </c>
+      <c r="AE21" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B22" s="5"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6">
@@ -1137,8 +1765,56 @@
       </c>
       <c r="K22" s="6"/>
       <c r="L22" s="7"/>
+      <c r="O22" s="5">
+        <v>0</v>
+      </c>
+      <c r="P22" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>1</v>
+      </c>
+      <c r="R22" s="6">
+        <v>1</v>
+      </c>
+      <c r="S22" s="6">
+        <v>1</v>
+      </c>
+      <c r="T22" s="6">
+        <v>1</v>
+      </c>
+      <c r="U22" s="6">
+        <v>1</v>
+      </c>
+      <c r="V22" s="6">
+        <v>1</v>
+      </c>
+      <c r="W22" s="6">
+        <v>1</v>
+      </c>
+      <c r="X22" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD22" s="6">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="6">
+        <v>1</v>
+      </c>
+      <c r="AF22" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B23" s="5">
         <v>1</v>
       </c>
@@ -1166,8 +1842,56 @@
       <c r="L23" s="7">
         <v>1</v>
       </c>
+      <c r="O23" s="5">
+        <v>0</v>
+      </c>
+      <c r="P23" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="6">
+        <v>1</v>
+      </c>
+      <c r="R23" s="6">
+        <v>1</v>
+      </c>
+      <c r="S23" s="6">
+        <v>1</v>
+      </c>
+      <c r="T23" s="6">
+        <v>1</v>
+      </c>
+      <c r="U23" s="6">
+        <v>1</v>
+      </c>
+      <c r="V23" s="6">
+        <v>1</v>
+      </c>
+      <c r="W23" s="6">
+        <v>1</v>
+      </c>
+      <c r="X23" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="6">
+        <v>1</v>
+      </c>
+      <c r="AE23" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B24" s="5"/>
       <c r="C24" s="6">
         <v>1</v>
@@ -1197,8 +1921,56 @@
         <v>1</v>
       </c>
       <c r="L24" s="7"/>
+      <c r="O24" s="5">
+        <v>0</v>
+      </c>
+      <c r="P24" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="6">
+        <v>0</v>
+      </c>
+      <c r="R24" s="6">
+        <v>1</v>
+      </c>
+      <c r="S24" s="6">
+        <v>1</v>
+      </c>
+      <c r="T24" s="6">
+        <v>1</v>
+      </c>
+      <c r="U24" s="6">
+        <v>1</v>
+      </c>
+      <c r="V24" s="6">
+        <v>1</v>
+      </c>
+      <c r="W24" s="6">
+        <v>0</v>
+      </c>
+      <c r="X24" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD24" s="6">
+        <v>1</v>
+      </c>
+      <c r="AE24" s="6">
+        <v>1</v>
+      </c>
+      <c r="AF24" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B25" s="5"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6">
@@ -1224,8 +1996,56 @@
       </c>
       <c r="K25" s="6"/>
       <c r="L25" s="7"/>
+      <c r="O25" s="5">
+        <v>0</v>
+      </c>
+      <c r="P25" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="6">
+        <v>1</v>
+      </c>
+      <c r="R25" s="6">
+        <v>1</v>
+      </c>
+      <c r="S25" s="6">
+        <v>1</v>
+      </c>
+      <c r="T25" s="6">
+        <v>0</v>
+      </c>
+      <c r="U25" s="6">
+        <v>1</v>
+      </c>
+      <c r="V25" s="6">
+        <v>1</v>
+      </c>
+      <c r="W25" s="6">
+        <v>1</v>
+      </c>
+      <c r="X25" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD25" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="6">
+        <v>1</v>
+      </c>
+      <c r="AF25" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B26" s="8"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -1245,8 +2065,56 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c r="L26" s="10"/>
+      <c r="O26" s="8">
+        <v>0</v>
+      </c>
+      <c r="P26" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="9">
+        <v>1</v>
+      </c>
+      <c r="R26" s="9">
+        <v>1</v>
+      </c>
+      <c r="S26" s="9">
+        <v>0</v>
+      </c>
+      <c r="T26" s="9">
+        <v>0</v>
+      </c>
+      <c r="U26" s="9">
+        <v>0</v>
+      </c>
+      <c r="V26" s="9">
+        <v>1</v>
+      </c>
+      <c r="W26" s="9">
+        <v>1</v>
+      </c>
+      <c r="X26" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC26" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1259,7 +2127,7 @@
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
